--- a/A2_results_step1.5_twoprice_1.4.xlsx
+++ b/A2_results_step1.5_twoprice_1.4.xlsx
@@ -463,2002 +463,2002 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>300006.85718750005</v>
+        <v>291365.2496875</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>308013.82575</v>
+        <v>295003.91325000004</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>308344.2988125</v>
+        <v>295334.38631250005</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>297923.69443750003</v>
+        <v>289145.14443750004</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>297619.78050000005</v>
+        <v>288841.2305</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>298093.16750000004</v>
+        <v>289314.61750000005</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>298724.72175</v>
+        <v>290756.22425</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>298370.77175</v>
+        <v>290402.27425</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>298883.1551875</v>
+        <v>290914.6576875</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>300701.0696875</v>
+        <v>292683.55218750006</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>300313.2351875</v>
+        <v>292295.71768750006</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>299021.2799375</v>
+        <v>290768.10493750003</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>299657.60931250005</v>
+        <v>291404.43431250006</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>288419.82843750005</v>
+        <v>286207.5859375</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>287994.6649375</v>
+        <v>285782.42243750003</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>288389.14481250005</v>
+        <v>286176.90231250005</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>303210.67387500004</v>
+        <v>294130.95137500006</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>303501.891375</v>
+        <v>294422.16887500003</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>300141.9191875</v>
+        <v>293260.05668750004</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>299761.0646875</v>
+        <v>292879.2021875</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>309789.6066875</v>
+        <v>297756.67918750003</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>309345.036</v>
+        <v>297312.10850000003</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>310134.29106250004</v>
+        <v>298101.36356250005</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>307455.341625</v>
+        <v>297141.619125</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>307020.53468750004</v>
+        <v>296706.8121875</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>307767.331375</v>
+        <v>297453.60887500003</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>311915.83831250004</v>
+        <v>299817.6958125</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>312243.22462500003</v>
+        <v>300145.082125</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>312616.0345</v>
+        <v>301552.4195</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>312949.5715</v>
+        <v>301885.95650000003</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>303438.0870625</v>
+        <v>295544.56706250005</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>303722.37768750003</v>
+        <v>295828.8576875</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>321306.84368750005</v>
+        <v>305340.1911875</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>320653.51425</v>
+        <v>304686.86175000004</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>321776.2251875</v>
+        <v>305809.57268750004</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>324627.36175000004</v>
+        <v>308247.41425000003</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>334508.72925000003</v>
+        <v>313361.50675000006</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>333725.43243750004</v>
+        <v>312578.2099375</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>335215.47331250005</v>
+        <v>314068.2508125</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>309937.97400000005</v>
+        <v>300535.97900000005</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>309723.01093750005</v>
+        <v>300321.01593750005</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>310386.84800000006</v>
+        <v>300984.853</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>311857.685875</v>
+        <v>307791.029625</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>311108.05600000004</v>
+        <v>307041.39975000004</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>312281.7596875</v>
+        <v>308215.1034375</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>327851.69625000004</v>
+        <v>321667.4475</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>326750.94075</v>
+        <v>320566.69200000004</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>308629.79712500004</v>
+        <v>304453.017125</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>309776.26812500006</v>
+        <v>305599.48812500003</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>310356.02468750003</v>
+        <v>306613.62843750004</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>310782.063625</v>
+        <v>307039.667375</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>314519.2286875</v>
+        <v>310755.86743750004</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>313705.54975</v>
+        <v>309942.18850000005</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>310862.51800000004</v>
+        <v>306999.88800000004</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>312219.39862500003</v>
+        <v>308356.768625</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>292910.9059375</v>
+        <v>291958.9946875</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>317360.67356250004</v>
+        <v>313109.5398125</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>316453.93031250004</v>
+        <v>312202.7965625</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>311794.41568750003</v>
+        <v>308601.27443750005</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>310964.43000000005</v>
+        <v>307771.28875</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>312211.62068750005</v>
+        <v>309018.4794375</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>329350.62112500006</v>
+        <v>323678.904875</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>330169.5014375</v>
+        <v>324497.78518750006</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>325678.9425</v>
+        <v>320838.17125</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>324684.5054375</v>
+        <v>319843.7341875</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>326431.86143750005</v>
+        <v>321591.09018750006</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>332620.01306250005</v>
+        <v>326939.46931250003</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>331407.1123125</v>
+        <v>325726.56856250006</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>333366.6801875</v>
+        <v>328195.02768750006</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>332201.18225</v>
+        <v>327029.52975000005</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>319151.4529375</v>
+        <v>315457.3779375</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>318404.46475000004</v>
+        <v>314710.38975000003</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>319871.09156250005</v>
+        <v>316177.01656250004</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>326510.9613125</v>
+        <v>321630.08756250003</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>327397.82343750005</v>
+        <v>322516.9496875</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>348263.2430625</v>
+        <v>340759.43931250006</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>346732.67312500003</v>
+        <v>339228.869375</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>349381.38618750003</v>
+        <v>341877.5824375</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>354101.9482500001</v>
+        <v>346414.367</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>373642.5935</v>
+        <v>363676.12225</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>330100.159875</v>
+        <v>325691.727375</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>329313.171625</v>
+        <v>324904.739125</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>400185.2089375001</v>
+        <v>386927.44268750004</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>298775.93662500003</v>
+        <v>289807.221625</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>298931.420875</v>
+        <v>289962.70587500004</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>307271.1603125</v>
+        <v>293583.4990625</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>306723.846</v>
+        <v>293036.18475</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>297471.79775</v>
+        <v>288216.49025000003</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>297106.03331250005</v>
+        <v>287850.72581250005</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>297666.34831250005</v>
+        <v>288411.04081250005</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>297919.08793750004</v>
+        <v>289698.2004375</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>297482.82600000006</v>
+        <v>289261.93850000005</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>300129.12212500005</v>
+        <v>291867.62462500005</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>299653.5285625</v>
+        <v>291392.0310625</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>300361.7361875</v>
+        <v>292100.2386875</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>299867.1041875</v>
+        <v>291409.06418750004</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>299294.56237500004</v>
+        <v>290836.52237500006</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>300035.6140625</v>
+        <v>291577.57406250003</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>289052.99037500005</v>
+        <v>287059.72287500004</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>302847.02693750005</v>
+        <v>293523.3144375</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>302300.18275000004</v>
+        <v>292976.47025</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>298532.88056250004</v>
+        <v>291574.34431250003</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>298684.12987500004</v>
+        <v>291725.59362500004</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>308720.01375000004</v>
+        <v>296194.2175</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>308135.50912500004</v>
+        <v>295609.712875</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>309100.72887500003</v>
+        <v>296574.932625</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>306020.3335625</v>
+        <v>295401.78606250003</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>310403.77306250005</v>
+        <v>297939.9230625</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>309715.1641875</v>
+        <v>297251.31418750004</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>310739.644875</v>
+        <v>298275.794875</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>310836.0214375</v>
+        <v>299525.3964375</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>310111.66468750004</v>
+        <v>298801.03968750004</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>301433.0335</v>
+        <v>293326.23350000003</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>300983.98862500006</v>
+        <v>292877.188625</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>305738.30387500004</v>
+        <v>294951.59512500005</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>305349.282375</v>
+        <v>294562.573625</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>306130.177375</v>
+        <v>295343.46862500004</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>319498.79862500005</v>
+        <v>302998.68362500006</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>318630.8178125</v>
+        <v>302130.7028125</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>321880.58075</v>
+        <v>305025.37200000003</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>333098.96300000005</v>
+        <v>311204.33175</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>332064.272875</v>
+        <v>310169.64162500005</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>333838.1695</v>
+        <v>311943.53825000004</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>307894.83343750006</v>
+        <v>298215.5171875</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>307436.81562500005</v>
+        <v>297757.499375</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>348623.38193750003</v>
+        <v>319456.17568750004</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>347117.65612500004</v>
+        <v>317950.44987500005</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>349480.08762500004</v>
+        <v>320312.88137500006</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>291645.5906875</v>
+        <v>281515.92818750005</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>291986.29493750003</v>
+        <v>281856.63243750005</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>297917.21262500004</v>
+        <v>283027.97262500005</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>298482.76</v>
+        <v>283593.52</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>291547.685125</v>
+        <v>281530.82762500003</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>291244.3648125</v>
+        <v>281835.7398125</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>291590.37418750004</v>
+        <v>282181.74918750004</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>292784.4123125</v>
+        <v>283302.46981250006</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>292529.71875</v>
+        <v>283047.77625000005</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>292944.792375</v>
+        <v>283462.849875</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>292993.0025625</v>
+        <v>283155.0488125</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>285325.19268750004</v>
+        <v>282179.7789375</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>285540.12062500004</v>
+        <v>282394.70687500003</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>294455.84156250005</v>
+        <v>283654.6665625</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>294156.402875</v>
+        <v>283355.22787500004</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>294638.27012500004</v>
+        <v>283837.09512500005</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>291409.106</v>
+        <v>283034.14225000003</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>291150.7405</v>
+        <v>282775.77675</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>298478.21787500003</v>
+        <v>284435.625375</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>296599.33625000005</v>
+        <v>284392.3225</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>299065.158875</v>
+        <v>284760.55387500004</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>299284.31350000005</v>
+        <v>284979.7085</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>298713.9606875</v>
+        <v>285481.2056875</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>298342.237</v>
+        <v>285109.482</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>298949.9808125</v>
+        <v>285717.22581250005</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>293139.150625</v>
+        <v>283744.893125</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>296063.0018125</v>
+        <v>284296.04681250005</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>295809.40218750003</v>
+        <v>284042.4471875</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>304463.2334375</v>
+        <v>285651.94093750004</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>305260.6343125</v>
+        <v>286449.34181250003</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>306512.008625</v>
+        <v>287115.96862500004</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>306014.60081250005</v>
+        <v>286618.5608125</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>306856.03800000006</v>
+        <v>287459.998</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>313508.370875</v>
+        <v>288717.80212500005</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>312918.52931250003</v>
+        <v>288127.96056250005</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>313980.49206250004</v>
+        <v>289189.92331250006</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>296977.010375</v>
+        <v>285834.80037500005</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>296694.74075000006</v>
+        <v>285552.53075000003</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>323751.52593750006</v>
+        <v>291027.8271875</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>322910.85293750005</v>
+        <v>290187.1541875</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>324330.000875</v>
+        <v>291606.30212500005</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>288408.13493750006</v>
+        <v>276029.30243750004</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>288478.797</v>
+        <v>276099.9645</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>292401.648125</v>
+        <v>274311.400625</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>292520.176625</v>
+        <v>274429.929125</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>288095.9620625</v>
+        <v>275953.1915625</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>288132.4</v>
+        <v>276020.87250000006</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>287857.72787500004</v>
+        <v>276320.735875</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>287823.88950000005</v>
+        <v>276320.3645</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>287895.18668750004</v>
+        <v>276391.6616875</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>288305.43662500003</v>
+        <v>276666.35112500004</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>288267.24325000006</v>
+        <v>276663.09075000003</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>288351.84968750004</v>
+        <v>276747.6971875</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>288032.56781250006</v>
+        <v>275991.21406250005</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>288112.6265</v>
+        <v>276071.27275</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>282753.06806250004</v>
+        <v>278755.9233125</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>282724.83775</v>
+        <v>278733.03400000004</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>282765.91625</v>
+        <v>278774.11250000005</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>289063.47362500004</v>
+        <v>275843.003625</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>287530.92706250004</v>
+        <v>277199.0668125</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>287580.9675</v>
+        <v>277275.70625000005</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>292093.75281250005</v>
+        <v>274911.0058125</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>292159.10037500004</v>
+        <v>275028.99537500006</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>290740.1030625</v>
+        <v>275708.08231250005</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>290690.76087500004</v>
+        <v>275711.22712500003</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>292480.52200000006</v>
+        <v>274874.677</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>292547.53331250005</v>
+        <v>275002.4433125</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>292074.5785625</v>
+        <v>275748.60356250004</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>292024.4531875</v>
+        <v>275753.0231875</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>288847.3815625</v>
+        <v>277265.01206250006</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>288916.8136875</v>
+        <v>277374.2561875</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>290755.83900000004</v>
+        <v>276416.79650000005</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>290863.98256250005</v>
+        <v>276524.9400625</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>296372.0824375</v>
+        <v>273258.9699375</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>296300.13662500004</v>
+        <v>273263.854125</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>297209.22862500005</v>
+        <v>273291.14912500005</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>297132.122625</v>
+        <v>273302.53512500005</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>301840.39081250003</v>
+        <v>271321.1815625</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>301736.678375</v>
+        <v>271335.767125</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>290548.82412500004</v>
+        <v>276793.846625</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>308586.00912500004</v>
+        <v>268337.957875</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>287059.35625</v>
+        <v>273729.37625000003</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>286984.85900000005</v>
+        <v>273834.44100000005</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>286942.809</v>
+        <v>273876.49100000004</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>286932.23625</v>
+        <v>273887.06375000003</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>286638.25987500005</v>
+        <v>274133.867625</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>286587.60500000004</v>
+        <v>274184.5225</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>286758.9405</v>
+        <v>274206.73825000005</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>286995.162375</v>
+        <v>273883.968875</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>286958.85125</v>
+        <v>273920.28</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>282432.14975000004</v>
+        <v>277968.10650000005</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>282412.86500000005</v>
+        <v>277987.39125000004</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>287655.267125</v>
+        <v>273252.296625</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>287619.797625</v>
+        <v>273287.766125</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>286047.91000000003</v>
+        <v>274776.61125</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>286014.63775000005</v>
+        <v>274809.88350000005</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>289982.811875</v>
+        <v>271287.309375</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>289926.11887500004</v>
+        <v>271344.00237500004</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>288777.717125</v>
+        <v>272416.06662500004</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>288728.965375</v>
+        <v>272464.81837500003</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>290257.797625</v>
+        <v>271041.52237500006</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>290190.678</v>
+        <v>271108.64200000005</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>290168.11500000005</v>
+        <v>271131.205</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>289522.833625</v>
+        <v>271857.672625</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>289499.816875</v>
+        <v>271880.689375</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>286768.74212500005</v>
+        <v>274243.809125</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>286754.76062500005</v>
+        <v>274257.790625</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>288427.97262500005</v>
+        <v>272876.11612500006</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>293415.15187500004</v>
+        <v>268269.684375</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>293305.03687500005</v>
+        <v>268379.799375</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>293935.063375</v>
+        <v>267914.09787500004</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>293854.2905</v>
+        <v>267994.87075</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>297770.355125</v>
+        <v>264596.62487500004</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>297664.09875</v>
+        <v>264702.88125000003</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>288261.120125</v>
+        <v>273099.81737500004</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>288181.24062500003</v>
+        <v>273179.696875</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>303396.30287500005</v>
+        <v>259824.14337500004</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>303348.889375</v>
+        <v>259871.55687500004</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>291835.33875000005</v>
+        <v>278748.92025</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>291871.601</v>
+        <v>278897.25950000004</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>291987.406</v>
+        <v>278967.2285</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>296978.862</v>
+        <v>278337.918</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>297025.446125</v>
+        <v>278491.91362500004</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>290814.35181250004</v>
+        <v>278347.65981250006</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>290926.30787500006</v>
+        <v>278433.18462500005</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>290875.97506250005</v>
+        <v>278680.2955625</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>290900.3410625</v>
+        <v>278805.9898125</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>291015.54400000005</v>
+        <v>278879.368</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>291732.90268750006</v>
+        <v>279426.47368750005</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>291757.88231250003</v>
+        <v>279550.0133125</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>291892.876875</v>
+        <v>279645.681875</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>283413.83543750003</v>
+        <v>278588.1059375</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>292480.69662500004</v>
+        <v>278409.181125</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>291100.4933125</v>
+        <v>279906.4323125</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>291138.09081250004</v>
+        <v>280058.75881250005</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>291263.698625</v>
+        <v>280137.42387500004</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>296995.9014375</v>
+        <v>279073.00343750004</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>295329.4986875</v>
+        <v>279455.52718750003</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>295383.57618750003</v>
+        <v>279630.31568750006</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>295555.51937500003</v>
+        <v>279758.25212500006</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>297853.6535</v>
+        <v>279245.2955</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>297919.248625</v>
+        <v>279462.81712500006</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>298110.397875</v>
+        <v>279596.65012500004</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>297913.71368750004</v>
+        <v>280433.52618750004</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>297981.06837500003</v>
+        <v>280665.725625</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>298175.52175</v>
+        <v>280796.955</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>293701.4294375</v>
+        <v>281404.0924375</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>293774.92287500005</v>
+        <v>281585.798375</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>303694.614875</v>
+        <v>279489.476375</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>304867.161625</v>
+        <v>279589.333125</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>305237.42875</v>
+        <v>280085.3395</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>311345.28512500005</v>
+        <v>279681.63512500003</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>311723.6205</v>
+        <v>279981.4785</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>296199.73756250006</v>
+        <v>281648.45056250005</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>296488.37137500005</v>
+        <v>282024.36212500004</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>319615.7018125</v>
+        <v>277970.6688125</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>300128.404625</v>
+        <v>290772.99462500005</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>300694.23581250006</v>
+        <v>291338.8258125</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>310191.734</v>
+        <v>296457.72650000005</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>298884.45587500004</v>
+        <v>289644.59587500006</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>298637.09231250006</v>
+        <v>289397.2323125</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>298978.15581250004</v>
+        <v>290291.1258125</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>301666.26987500006</v>
+        <v>292911.614875</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>301384.6248125</v>
+        <v>292629.96981250006</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>302064.340625</v>
+        <v>293309.68562500004</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>299675.64775000006</v>
+        <v>290591.20525000006</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>287643.34300000005</v>
+        <v>284719.6805</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>303216.84543750004</v>
+        <v>293241.1154375</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>303645.855625</v>
+        <v>293670.12562500004</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>299818.50731250003</v>
+        <v>292079.19731250004</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>299543.9738125</v>
+        <v>291804.6638125</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>310730.537375</v>
+        <v>297762.114875</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>308518.9855625</v>
+        <v>297249.4830625</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>308182.877125</v>
+        <v>296913.37462500005</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>309048.5925</v>
+        <v>297779.09</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>312374.75018750003</v>
+        <v>299169.14518750005</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>313352.2915625</v>
+        <v>300146.6865625</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>304704.21475000004</v>
+        <v>296026.36975</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>309599.7490625</v>
+        <v>298748.4365625</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>309367.99100000004</v>
+        <v>298516.67850000004</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>310208.59256250004</v>
+        <v>299357.28006250004</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>322766.58693750005</v>
+        <v>305397.32693750004</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>322255.06625000003</v>
+        <v>304885.80625</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>323559.84656250005</v>
+        <v>306190.58656250004</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>326220.202125</v>
+        <v>308314.98962500005</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>325697.147125</v>
+        <v>307791.93462500005</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>338630.49568750005</v>
+        <v>315755.36568750005</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>338003.03900000005</v>
+        <v>315127.90900000004</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>339807.89731250005</v>
+        <v>316932.76731250004</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>311413.29387500003</v>
+        <v>301123.44137500005</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>353931.496625</v>
+        <v>323740.89662500005</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>356286.76587500004</v>
+        <v>326096.16587500006</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>302370.7583125</v>
+        <v>292543.46331250004</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>302273.3586875</v>
+        <v>292446.0636875</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>312684.24681250006</v>
+        <v>298514.06556250004</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>312506.9731875</v>
+        <v>298336.7919375</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>313297.10325000004</v>
+        <v>299126.922</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>300126.49675000005</v>
+        <v>290612.87175000005</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>300598.61531250004</v>
+        <v>291432.00531250006</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>302765.80918750004</v>
+        <v>293517.9166875</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>303171.88981250004</v>
+        <v>293923.9973125</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>299474.7795</v>
+        <v>289827.17325000005</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>299259.18737500004</v>
+        <v>289611.581125</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>299745.3360625</v>
+        <v>290097.7298125</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>286386.76206250006</v>
+        <v>282932.35081250005</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>303452.346375</v>
+        <v>292870.136375</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>303341.9155</v>
+        <v>292759.70550000004</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>303884.4699375</v>
+        <v>293302.25993750006</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>301210.37556250003</v>
+        <v>292874.08806250006</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>301092.51731250004</v>
+        <v>292756.2298125</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>301567.47368750005</v>
+        <v>293231.1861875</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>312421.9998125</v>
+        <v>298841.1910625</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>313146.5021875</v>
+        <v>299565.69343750004</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>310062.67712500005</v>
+        <v>298153.58587500005</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>310609.3715625</v>
+        <v>298700.2803125</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>314938.502625</v>
+        <v>300993.21012500004</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>314782.98537500005</v>
+        <v>300837.692875</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>315426.38868750003</v>
+        <v>302420.32368750003</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>316196.50700000004</v>
+        <v>303190.44200000004</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>307687.14368750004</v>
+        <v>298477.21118750004</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>307641.71506250004</v>
+        <v>298431.78256250004</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>308284.85475000006</v>
+        <v>299074.92225</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>312349.94068750006</v>
+        <v>301147.0019375</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>313003.69956250006</v>
+        <v>301800.7608125</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>325449.226</v>
+        <v>307146.786</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>325258.541</v>
+        <v>306956.101</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>342355.3040625</v>
+        <v>318350.15656250005</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>359602.55175000004</v>
+        <v>328045.81925000006</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>359088.38056250004</v>
+        <v>327531.64806250005</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>361006.819625</v>
+        <v>329450.087125</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>305478.94456250005</v>
+        <v>298629.3083125</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>305787.023125</v>
+        <v>298937.386875</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>317433.63225</v>
+        <v>307133.00100000005</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>318031.40431250003</v>
+        <v>307730.77306250005</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>303191.116875</v>
+        <v>296241.60687500006</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>303512.7379375</v>
+        <v>296563.22793750005</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>303568.923375</v>
+        <v>297250.717125</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>304415.51925</v>
+        <v>298097.313</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>307170.90856250003</v>
+        <v>300813.3523125</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>307580.788</v>
+        <v>301223.23175000004</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>305242.159875</v>
+        <v>298695.30737500003</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>304544.46025</v>
+        <v>297997.60775</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>305520.375125</v>
+        <v>298973.52262500004</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>290724.66993750003</v>
+        <v>288953.6961875</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>309505.540625</v>
+        <v>302303.696875</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>308850.7675625</v>
+        <v>301648.9238125</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>309959.849875</v>
+        <v>302758.006125</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>305111.652875</v>
+        <v>299647.166625</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>305407.1311875</v>
+        <v>299942.6449375</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>317944.748375</v>
+        <v>308408.99462500005</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>315938.84293750004</v>
+        <v>307760.20918750006</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>321361.87887500005</v>
+        <v>311768.680125</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>321938.86750000005</v>
+        <v>312345.66875</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>322072.0228125</v>
+        <v>313294.38031250006</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>321222.7650625</v>
+        <v>312445.1225625</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>322690.13918750006</v>
+        <v>313912.49668750004</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>310826.4930625</v>
+        <v>304565.37306250003</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>311362.94418750005</v>
+        <v>305101.82418750005</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>316353.73112500005</v>
+        <v>308223.339875</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>315859.57056250004</v>
+        <v>307729.17931250005</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>317021.29568750004</v>
+        <v>308890.90443750005</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>333634.58187500003</v>
+        <v>320975.92812500003</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>334455.4735</v>
+        <v>321796.81975</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>338250.4968125</v>
+        <v>325261.15806250006</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>339139.2664375</v>
+        <v>326149.9276875</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>353285.34087500005</v>
+        <v>336523.48462500004</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>351990.40643750003</v>
+        <v>335228.5501875</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>354557.76250000007</v>
+        <v>337795.90625</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>318789.04818750004</v>
+        <v>311332.91818750004</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>318248.76900000003</v>
+        <v>310792.639</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>319450.92006250005</v>
+        <v>311994.79006250005</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>375227.72937500005</v>
+        <v>352983.968125</v>
       </c>
     </row>
   </sheetData>
@@ -2642,22 +2642,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>28194.694293750006</v>
+        <v>26909.39193375001</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>25683.907072500002</v>
+        <v>25110.885712500003</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>24004.147514999997</v>
+        <v>23586.666449999997</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>107899.570575</v>
+        <v>24356.741925000024</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -2667,7 +2667,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>29559.012438750004</v>
+        <v>28718.24889375</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2697,17 +2697,17 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>16399.271174999994</v>
+        <v>15650.974425</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>125125.45822500001</v>
+        <v>15551.77177500003</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>120587.00542499998</v>
+        <v>15916.737074999954</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -2722,7 +2722,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>20268.344456250004</v>
+        <v>18743.92436625</v>
       </c>
     </row>
     <row r="19" spans="1:1">

--- a/A2_results_step1.5_twoprice_1.4.xlsx
+++ b/A2_results_step1.5_twoprice_1.4.xlsx
@@ -463,2002 +463,2002 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>291365.2496875</v>
+        <v>419221.72962500004</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>295003.91325000004</v>
+        <v>421236.66575000004</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>295334.38631250005</v>
+        <v>421413.38162500004</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>289145.14443750004</v>
+        <v>417338.6428125</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>288841.2305</v>
+        <v>417126.730625</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>289314.61750000005</v>
+        <v>417427.24975</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>290756.22425</v>
+        <v>418831.01975000004</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>290402.27425</v>
+        <v>418566.0625625</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>290914.6576875</v>
+        <v>418923.138125</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>292683.55218750006</v>
+        <v>420199.905625</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>292295.71768750006</v>
+        <v>419897.82443750004</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>290768.10493750003</v>
+        <v>418829.185</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>291404.43431250006</v>
+        <v>419304.742</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>286207.5859375</v>
+        <v>415895.1084375</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>285782.42243750003</v>
+        <v>415512.98275</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>286176.90231250005</v>
+        <v>415873.206</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>294130.95137500006</v>
+        <v>421482.55593750003</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>294422.16887500003</v>
+        <v>421673.06700000004</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>293260.05668750004</v>
+        <v>420934.78962500003</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>292879.2021875</v>
+        <v>420628.47187500005</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>297756.67918750003</v>
+        <v>423625.234875</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>297312.10850000003</v>
+        <v>423292.3999375</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>298101.36356250005</v>
+        <v>423811.44450000004</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>297141.619125</v>
+        <v>423424.1659375</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>296706.8121875</v>
+        <v>423090.57062500005</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>297453.60887500003</v>
+        <v>423607.47112500004</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>299817.6958125</v>
+        <v>425382.1676875</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>300145.082125</v>
+        <v>425586.99575</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>301552.4195</v>
+        <v>426922.21006250003</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>301885.95650000003</v>
+        <v>427098.92025</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>295544.56706250005</v>
+        <v>422220.1100625</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>295828.8576875</v>
+        <v>422355.0405</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>305340.1911875</v>
+        <v>429225.51443750004</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>304686.86175000004</v>
+        <v>428743.016125</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>305809.57268750004</v>
+        <v>429493.86137500004</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>308247.41425000003</v>
+        <v>431503.856</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>313361.50675000006</v>
+        <v>434527.63231250003</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>312578.2099375</v>
+        <v>433959.464875</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>314068.2508125</v>
+        <v>434931.93825</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>300535.97900000005</v>
+        <v>425809.0423125</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>300321.01593750005</v>
+        <v>425700.621625</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>300984.853</v>
+        <v>426110.594125</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>307791.029625</v>
+        <v>435696.79706250003</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>307041.39975000004</v>
+        <v>435024.554625</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>308215.1034375</v>
+        <v>436033.53575000004</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>321667.4475</v>
+        <v>447976.44875000004</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>320566.69200000004</v>
+        <v>446994.315125</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>304453.017125</v>
+        <v>432758.044125</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>305599.48812500003</v>
+        <v>433731.64725000004</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>306613.62843750004</v>
+        <v>434730.25768750004</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>307039.667375</v>
+        <v>435069.0646875</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>310755.86743750004</v>
+        <v>438315.887125</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>309942.18850000005</v>
+        <v>437566.12837500003</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>306999.88800000004</v>
+        <v>435080.6780625</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>308356.768625</v>
+        <v>436276.7863125</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>291958.9946875</v>
+        <v>421692.893125</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>313109.5398125</v>
+        <v>440506.139375</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>312202.7965625</v>
+        <v>439652.8413125</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>308601.27443750005</v>
+        <v>436309.256125</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>307771.28875</v>
+        <v>435537.18281250005</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>309018.4794375</v>
+        <v>436622.42668750003</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>323678.904875</v>
+        <v>449613.26306250005</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>324497.78518750006</v>
+        <v>450240.767375</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>320838.17125</v>
+        <v>447186.3268125</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>319843.7341875</v>
+        <v>446260.297</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>321591.09018750006</v>
+        <v>447777.7568125</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>326939.46931250003</v>
+        <v>452579.8849375</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>325726.56856250006</v>
+        <v>451471.694375</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>328195.02768750006</v>
+        <v>453632.99950000003</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>327029.52975000005</v>
+        <v>452552.2535625</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>315457.3779375</v>
+        <v>442182.68593750003</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>314710.38975000003</v>
+        <v>441496.5738125</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>316177.01656250004</v>
+        <v>442728.08187500003</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>321630.08756250003</v>
+        <v>447710.650625</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>322516.9496875</v>
+        <v>448385.092375</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>340759.43931250006</v>
+        <v>464740.80006250006</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>339228.869375</v>
+        <v>463333.04250000004</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>341877.5824375</v>
+        <v>465609.889875</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>346414.367</v>
+        <v>469781.42375</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>363676.12225</v>
+        <v>484990.12031250005</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>325691.727375</v>
+        <v>451043.8994375</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>324904.739125</v>
+        <v>450323.8991875</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>386927.44268750004</v>
+        <v>505830.44587500003</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>289807.221625</v>
+        <v>417659.18100000004</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>289962.70587500004</v>
+        <v>417726.2050625</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>293583.4990625</v>
+        <v>419802.67956250004</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>293036.18475</v>
+        <v>419406.33512500004</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>288216.49025000003</v>
+        <v>416392.45156250003</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>287850.72581250005</v>
+        <v>416120.34650000004</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>288411.04081250005</v>
+        <v>416493.5718125</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>289698.2004375</v>
+        <v>417765.1215625</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>289261.93850000005</v>
+        <v>417413.9255625</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>291867.62462500005</v>
+        <v>419374.8009375</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>291392.0310625</v>
+        <v>418979.7540625</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>292100.2386875</v>
+        <v>419475.2884375</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>291409.06418750004</v>
+        <v>419364.8799375</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>290836.52237500006</v>
+        <v>418887.8715625</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>291577.57406250003</v>
+        <v>419455.5675</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>287059.72287500004</v>
+        <v>416737.054125</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>293523.3144375</v>
+        <v>420865.52675</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>292976.47025</v>
+        <v>420390.52325</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>291574.34431250003</v>
+        <v>419228.0426875</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>291725.59362500004</v>
+        <v>419269.95225000003</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>296194.2175</v>
+        <v>422042.2400625</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>295609.712875</v>
+        <v>421565.5789375</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>296574.932625</v>
+        <v>422232.2705625</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>295401.78606250003</v>
+        <v>421770.544375</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>297939.9230625</v>
+        <v>423489.90368750005</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>297251.31418750004</v>
+        <v>422936.56100000005</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>298275.794875</v>
+        <v>423666.478375</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>299525.3964375</v>
+        <v>424885.424375</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>298801.03968750004</v>
+        <v>424267.87912500004</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>293326.23350000003</v>
+        <v>419982.457375</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>292877.188625</v>
+        <v>419612.3985625</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>294951.59512500005</v>
+        <v>420952.22325000004</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>294562.573625</v>
+        <v>420637.0759375</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>295343.46862500004</v>
+        <v>421121.3744375</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>302998.68362500006</v>
+        <v>426865.691125</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>302130.7028125</v>
+        <v>426157.3756875</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>305025.37200000003</v>
+        <v>428429.45762500004</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>311204.33175</v>
+        <v>432377.6145</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>310169.64162500005</v>
+        <v>431528.3015</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>311943.53825000004</v>
+        <v>432732.28331250005</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>298215.5171875</v>
+        <v>423495.34575000004</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>297757.499375</v>
+        <v>423126.60143750004</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>319456.17568750004</v>
+        <v>438182.6086875</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>317950.44987500005</v>
+        <v>437000.84756250004</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>320312.88137500006</v>
+        <v>438629.576375</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>281515.92818750005</v>
+        <v>409350.9666875</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>281856.63243750005</v>
+        <v>409456.35962500004</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>283027.97262500005</v>
+        <v>409252.96875</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>283593.52</v>
+        <v>409404.622875</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>281530.82762500003</v>
+        <v>409717.06675</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>281835.7398125</v>
+        <v>409891.97468750004</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>282181.74918750004</v>
+        <v>410021.650875</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>283302.46981250006</v>
+        <v>410668.1430625</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>283047.77625000005</v>
+        <v>410526.69775</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>283462.849875</v>
+        <v>410674.8485</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>283155.0488125</v>
+        <v>410902.363</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>282179.7789375</v>
+        <v>411876.31875000003</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>282394.70687500003</v>
+        <v>412045.20412500005</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>283654.6665625</v>
+        <v>410857.4244375</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>283355.22787500004</v>
+        <v>410664.01831250003</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>283837.09512500005</v>
+        <v>410900.81725</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>283034.14225000003</v>
+        <v>410552.06243750005</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>282775.77675</v>
+        <v>410398.18700000003</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>284435.625375</v>
+        <v>410095.43175000005</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>284392.3225</v>
+        <v>410476.41750000004</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>284760.55387500004</v>
+        <v>410090.63406250003</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>284979.7085</v>
+        <v>410122.38525</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>285481.2056875</v>
+        <v>410601.62475</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>285109.482</v>
+        <v>410393.96075</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>285717.22581250005</v>
+        <v>410605.279125</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>283744.893125</v>
+        <v>409982.03275</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>284296.04681250005</v>
+        <v>410097.5370625</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>284042.4471875</v>
+        <v>409956.95075</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>285651.94093750004</v>
+        <v>409458.3218125</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>286449.34181250003</v>
+        <v>409732.51550000004</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>287115.96862500004</v>
+        <v>410048.802625</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>286618.5608125</v>
+        <v>409778.08900000004</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>287459.998</v>
+        <v>410088.237</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>288717.80212500005</v>
+        <v>409488.035875</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>288127.96056250005</v>
+        <v>409180.5058125</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>289189.92331250006</v>
+        <v>409518.242</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>285834.80037500005</v>
+        <v>410886.59181250003</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>285552.53075000003</v>
+        <v>410751.56200000003</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>291027.8271875</v>
+        <v>409203.50075</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>290187.1541875</v>
+        <v>408841.47506250005</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>291606.30212500005</v>
+        <v>409346.2345</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>276029.30243750004</v>
+        <v>403644.0675</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>276099.9645</v>
+        <v>403436.991625</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>274311.400625</v>
+        <v>400193.71862500004</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>274429.929125</v>
+        <v>399789.602625</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>275953.1915625</v>
+        <v>403773.462875</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>276020.87250000006</v>
+        <v>403692.41725</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>276320.735875</v>
+        <v>404016.269625</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>276320.3645</v>
+        <v>404153.2578125</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>276391.6616875</v>
+        <v>403966.92387500004</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>276666.35112500004</v>
+        <v>403764.82675</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>276663.09075000003</v>
+        <v>403887.197375</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>276747.6971875</v>
+        <v>403651.727</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>275991.21406250005</v>
+        <v>403674.6935</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>276071.27275</v>
+        <v>403491.87425</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>278755.9233125</v>
+        <v>408231.46175</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>278733.03400000004</v>
+        <v>408278.81881250005</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>278774.11250000005</v>
+        <v>408276.05575</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>275843.003625</v>
+        <v>402840.422375</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>277199.0668125</v>
+        <v>404467.043625</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>277275.70625000005</v>
+        <v>404398.95412500005</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>274911.0058125</v>
+        <v>400178.805125</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>275028.99537500006</v>
+        <v>400005.71125000005</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>275708.08231250005</v>
+        <v>401435.229875</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>275711.22712500003</v>
+        <v>401576.19806250004</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>274874.677</v>
+        <v>399783.189625</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>275002.4433125</v>
+        <v>399687.2845</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>275748.60356250004</v>
+        <v>400468.2525</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>275753.0231875</v>
+        <v>400649.455</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>277265.01206250006</v>
+        <v>403472.828625</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>277374.2561875</v>
+        <v>403322.9255</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>276416.79650000005</v>
+        <v>402010.60468750005</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>276524.9400625</v>
+        <v>401684.42850000004</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>273258.9699375</v>
+        <v>396307.141</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>273263.854125</v>
+        <v>396559.533</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>273291.14912500005</v>
+        <v>395655.8505</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>273302.53512500005</v>
+        <v>395899.0514375</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>271321.1815625</v>
+        <v>391371.89862500003</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>271335.767125</v>
+        <v>391668.290875</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>276793.846625</v>
+        <v>401598.898125</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>268337.957875</v>
+        <v>384987.23725</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>273729.37625000003</v>
+        <v>400819.86812500004</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>273834.44100000005</v>
+        <v>401481.609125</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>273876.49100000004</v>
+        <v>401668.60887500003</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>273887.06375000003</v>
+        <v>401333.44587500003</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>274133.867625</v>
+        <v>401651.826375</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>274184.5225</v>
+        <v>401528.017375</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>274206.73825000005</v>
+        <v>401224.23625</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>273883.968875</v>
+        <v>401261.3725</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>273920.28</v>
+        <v>401455.0355</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>277968.10650000005</v>
+        <v>407398.03825000004</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>277987.39125000004</v>
+        <v>407428.209125</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>273252.296625</v>
+        <v>399933.80425000004</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>273287.766125</v>
+        <v>400076.164125</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>274776.61125</v>
+        <v>401848.586375</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>274809.88350000005</v>
+        <v>401997.683375</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>271287.309375</v>
+        <v>396249.9195</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>271344.00237500004</v>
+        <v>396464.28150000004</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>272416.06662500004</v>
+        <v>397871.4645</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>272464.81837500003</v>
+        <v>398057.03075000003</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>271041.52237500006</v>
+        <v>395634.58762500004</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>271108.64200000005</v>
+        <v>395911.127625</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>271131.205</v>
+        <v>395403.21</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>271857.672625</v>
+        <v>396418.840875</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>271880.689375</v>
+        <v>395890.51875000005</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>274243.809125</v>
+        <v>400310.289125</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>274257.790625</v>
+        <v>399854.033125</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>272876.11612500006</v>
+        <v>398149.848125</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>268269.684375</v>
+        <v>390900.574375</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>268379.799375</v>
+        <v>390512.58275</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>267914.09787500004</v>
+        <v>389827.21762500005</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>267994.87075</v>
+        <v>390133.22887500003</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>264596.62487500004</v>
+        <v>384077.13225</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>264702.88125000003</v>
+        <v>384465.774875</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>273099.81737500004</v>
+        <v>397437.447125</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>273179.696875</v>
+        <v>397143.5735</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>259824.14337500004</v>
+        <v>376900.79287500004</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>259871.55687500004</v>
+        <v>375600.337375</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>278748.92025</v>
+        <v>406271.720875</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>278897.25950000004</v>
+        <v>406580.82225</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>278967.2285</v>
+        <v>406441.851</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>278337.918</v>
+        <v>404089.2469375</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>278491.91362500004</v>
+        <v>404474.65975</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>278347.65981250006</v>
+        <v>406364.7915</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>278433.18462500005</v>
+        <v>406218.94587500003</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>278680.2955625</v>
+        <v>406435.2230625</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>278805.9898125</v>
+        <v>406698.27687500004</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>278879.368</v>
+        <v>406573.4176875</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>279426.47368750005</v>
+        <v>406597.1219375</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>279550.0133125</v>
+        <v>406846.2925625</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>279645.681875</v>
+        <v>406694.0569375</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>278588.1059375</v>
+        <v>408075.1784375</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>278409.181125</v>
+        <v>405367.4968125</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>279906.4323125</v>
+        <v>407248.55312500003</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>280058.75881250005</v>
+        <v>407523.18487500004</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>280137.42387500004</v>
+        <v>407408.95975000004</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>279073.00343750004</v>
+        <v>404444.0945625</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>279455.52718750003</v>
+        <v>405276.895375</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>279630.31568750006</v>
+        <v>405589.50725</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>279758.25212500006</v>
+        <v>405437.353125</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>279245.2955</v>
+        <v>404260.324</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>279462.81712500006</v>
+        <v>404690.15437500004</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>279596.65012500004</v>
+        <v>404494.5230625</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>280433.52618750004</v>
+        <v>405271.59725</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>280665.725625</v>
+        <v>405680.5795625</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>280796.955</v>
+        <v>405473.22400000005</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>281404.0924375</v>
+        <v>407723.48212500004</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>281585.798375</v>
+        <v>408038.79875</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>279489.476375</v>
+        <v>402464.601</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>279589.333125</v>
+        <v>402106.442875</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>280085.3395</v>
+        <v>402371.7799375</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>279681.63512500003</v>
+        <v>400210.67525000003</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>279981.4785</v>
+        <v>399857.652375</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>281648.45056250005</v>
+        <v>406406.74950000003</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>282024.36212500004</v>
+        <v>406613.29125</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>277970.6688125</v>
+        <v>395957.8685625</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>290772.99462500005</v>
+        <v>418749.05225</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>291338.8258125</v>
+        <v>419150.160875</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>296457.72650000005</v>
+        <v>422878.517875</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>289644.59587500006</v>
+        <v>417867.225125</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>289397.2323125</v>
+        <v>417697.29787500005</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>290291.1258125</v>
+        <v>418469.455625</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>292911.614875</v>
+        <v>420458.9415625</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>292629.96981250006</v>
+        <v>420247.5631875</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>293309.68562500004</v>
+        <v>420734.196125</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>290591.20525000006</v>
+        <v>418577.823625</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>284719.6805</v>
+        <v>414413.6628125</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>293241.1154375</v>
+        <v>420623.77025</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>293670.12562500004</v>
+        <v>420936.54887500004</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>292079.19731250004</v>
+        <v>419772.653375</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>291804.6638125</v>
+        <v>419563.2950625</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>297762.114875</v>
+        <v>423767.9135</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>297249.4830625</v>
+        <v>423581.20200000005</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>296913.37462500005</v>
+        <v>423321.719125</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>297779.09</v>
+        <v>423957.5383125</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>299169.14518750005</v>
+        <v>424904.1341875</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>300146.6865625</v>
+        <v>425616.43525000004</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>296026.36975</v>
+        <v>422737.7855</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>298748.4365625</v>
+        <v>424818.06725</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>298516.67850000004</v>
+        <v>424642.4385625</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>299357.28006250004</v>
+        <v>425219.95656250004</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>305397.32693750004</v>
+        <v>429354.64268750005</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>304885.80625</v>
+        <v>428977.95687500003</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>306190.58656250004</v>
+        <v>429910.8715</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>308314.98962500005</v>
+        <v>431655.10225</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>307791.93462500005</v>
+        <v>431258.1385</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>315755.36568750005</v>
+        <v>437040.11825</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>315127.90900000004</v>
+        <v>436568.4774375</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>316932.76731250004</v>
+        <v>437855.76825</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>301123.44137500005</v>
+        <v>426279.3856875</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>323740.89662500005</v>
+        <v>442889.50487500004</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>326096.16587500006</v>
+        <v>444570.839625</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>292543.46331250004</v>
+        <v>420421.1873125</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>292446.0636875</v>
+        <v>420373.13168750005</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>298514.06556250004</v>
+        <v>424787.137125</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>298336.7919375</v>
+        <v>424692.55568750005</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>299126.922</v>
+        <v>425208.112</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>290612.87175000005</v>
+        <v>418718.59900000005</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>291432.00531250006</v>
+        <v>419519.2533125</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>293517.9166875</v>
+        <v>421043.51325</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>293923.9973125</v>
+        <v>421320.4311875</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>289827.17325000005</v>
+        <v>417792.28425</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>289611.581125</v>
+        <v>417618.36493750004</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>290097.7298125</v>
+        <v>417980.744375</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>282932.35081250005</v>
+        <v>412607.865125</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>292870.136375</v>
+        <v>420218.43875000003</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>292759.70550000004</v>
+        <v>420113.155875</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>293302.25993750006</v>
+        <v>420527.358375</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>292874.08806250006</v>
+        <v>420548.4613125</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>292756.2298125</v>
+        <v>420454.907</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>293231.1861875</v>
+        <v>420801.525</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>298841.1910625</v>
+        <v>424742.7425</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>299565.69343750004</v>
+        <v>425252.85500000004</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>298153.58587500005</v>
+        <v>424446.67175000004</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>298700.2803125</v>
+        <v>424831.87725</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>300993.21012500004</v>
+        <v>426577.21825000003</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>300837.692875</v>
+        <v>426470.0036875</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>302420.32368750003</v>
+        <v>427827.96375</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>303190.44200000004</v>
+        <v>428379.9545</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>298477.21118750004</v>
+        <v>425167.5654375</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>298431.78256250004</v>
+        <v>425148.059125</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>299074.92225</v>
+        <v>425591.0338125</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>301147.0019375</v>
+        <v>427177.2053125</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>301800.7608125</v>
+        <v>427618.5438125</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>307146.786</v>
+        <v>431056.2583125</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>306956.101</v>
+        <v>430916.49725</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>318350.15656250005</v>
+        <v>439593.313375</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>328045.81925000006</v>
+        <v>446830.2886875</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>327531.64806250005</v>
+        <v>446463.1474375</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>329450.087125</v>
+        <v>447826.18575</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>298629.3083125</v>
+        <v>426535.07575</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>298937.386875</v>
+        <v>426755.81918750005</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>307133.00100000005</v>
+        <v>433442.00225</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>307730.77306250005</v>
+        <v>433847.89275</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>296241.60687500006</v>
+        <v>424474.15900000004</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>296563.22793750005</v>
+        <v>424695.3870625</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>297250.717125</v>
+        <v>425435.4223125</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>298097.313</v>
+        <v>426126.7103125</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>300813.3523125</v>
+        <v>428373.37200000003</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>301223.23175000004</v>
+        <v>428654.08875</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>298695.30737500003</v>
+        <v>426697.4215</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>297997.60775</v>
+        <v>426078.3978125</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>298973.52262500004</v>
+        <v>426893.54031250003</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>288953.6961875</v>
+        <v>418653.338</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>302303.696875</v>
+        <v>429700.29643750004</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>301648.9238125</v>
+        <v>429098.9685625</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>302758.006125</v>
+        <v>430031.40175</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>299647.166625</v>
+        <v>427355.14831250004</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>299942.6449375</v>
+        <v>427546.59218750003</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>308408.99462500005</v>
+        <v>434422.1873125</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>307760.20918750006</v>
+        <v>434108.36475</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>311768.680125</v>
+        <v>437409.09575000004</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>312345.66875</v>
+        <v>437825.55425000004</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>313294.38031250006</v>
+        <v>438732.35212500003</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>312445.1225625</v>
+        <v>437967.846375</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>313912.49668750004</v>
+        <v>439159.5510625</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>304565.37306250003</v>
+        <v>431290.6810625</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>305101.82418750005</v>
+        <v>431652.88950000005</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>308223.339875</v>
+        <v>434303.90293750004</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>307729.17931250005</v>
+        <v>433860.4055625</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>308890.90443750005</v>
+        <v>434759.04712500004</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>320975.92812500003</v>
+        <v>444957.288875</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>321796.81975</v>
+        <v>445529.1271875</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>325261.15806250006</v>
+        <v>448628.2148125</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>326149.9276875</v>
+        <v>449255.091375</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>336523.48462500004</v>
+        <v>457837.4826875</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>335228.5501875</v>
+        <v>456683.74137500004</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>337795.90625</v>
+        <v>458733.5299375</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>311332.91818750004</v>
+        <v>436685.09025</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>310792.639</v>
+        <v>436211.7990625</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>311994.79006250005</v>
+        <v>437160.0855625</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>352983.968125</v>
+        <v>471478.6005</v>
       </c>
     </row>
   </sheetData>
@@ -2550,76 +2550,76 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2">
-        <v>5656.489500000003</v>
+        <v>24747.14156249999</v>
       </c>
       <c r="B2">
-        <v>3373.4503124999983</v>
+        <v>3373.4503125000006</v>
       </c>
       <c r="C2">
-        <v>3269.525062500001</v>
+        <v>3269.5250624999985</v>
       </c>
       <c r="D2">
-        <v>66128.15625000001</v>
+        <v>53563.806562500045</v>
       </c>
       <c r="E2">
-        <v>4181.298750000001</v>
+        <v>4181.298749999998</v>
       </c>
       <c r="F2">
-        <v>7497.203400000001</v>
+        <v>26656.723199999986</v>
       </c>
       <c r="G2">
-        <v>6483.733200000003</v>
+        <v>17598.70440000001</v>
       </c>
       <c r="H2">
-        <v>7961.859300000004</v>
+        <v>11942.788950000002</v>
       </c>
       <c r="I2">
         <v>0.0</v>
       </c>
       <c r="J2">
-        <v>5136.961949999999</v>
+        <v>28253.29072500001</v>
       </c>
       <c r="K2">
-        <v>1611.3382499999998</v>
+        <v>5639.683875</v>
       </c>
       <c r="L2">
-        <v>4499.9847</v>
+        <v>15749.94645</v>
       </c>
       <c r="M2">
-        <v>70338.61500000002</v>
+        <v>70338.61499999999</v>
       </c>
       <c r="N2">
-        <v>68251.87124999997</v>
+        <v>42316.160175</v>
       </c>
       <c r="O2">
-        <v>1395.1816499999998</v>
+        <v>14649.407325</v>
       </c>
       <c r="P2">
-        <v>2155.6078875</v>
+        <v>2874.1438500000004</v>
       </c>
       <c r="Q2">
-        <v>7680.6711000000005</v>
+        <v>17921.565900000005</v>
       </c>
       <c r="R2">
         <v>0.0</v>
       </c>
       <c r="S2">
-        <v>4141.064399999999</v>
+        <v>9317.3949</v>
       </c>
       <c r="T2">
-        <v>4092.564300000001</v>
+        <v>11254.551825000004</v>
       </c>
       <c r="U2">
-        <v>3799.3863000000006</v>
+        <v>32294.783550000004</v>
       </c>
       <c r="V2">
         <v>0.0</v>
       </c>
       <c r="W2">
-        <v>1614.5533499999992</v>
+        <v>8880.043424999996</v>
       </c>
       <c r="X2">
-        <v>784.0634624999998</v>
+        <v>6272.5077</v>
       </c>
     </row>
   </sheetData>
@@ -2642,122 +2642,122 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>26909.39193375001</v>
+        <v>27278.061937499988</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>25110.885712500003</v>
+        <v>25110.88571250001</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>23586.666449999997</v>
+        <v>23586.666450000004</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>24356.741925000024</v>
+        <v>24356.741925000046</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>24898.2777675</v>
+        <v>24898.277767499996</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>28718.24889375</v>
+        <v>29101.518022499986</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>32684.28023625001</v>
+        <v>33111.976402500004</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>37201.04538750001</v>
+        <v>37274.3683575</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>35035.65922500001</v>
+        <v>35035.659224999996</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>26122.033072500002</v>
+        <v>26981.61664125001</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>19561.218161250006</v>
+        <v>19636.1168175</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>15650.974425</v>
+        <v>15837.00673875</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>15551.77177500003</v>
+        <v>15551.771774999987</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>15916.737074999954</v>
+        <v>15916.737075000005</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>15512.752323750005</v>
+        <v>15945.589342500001</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>15970.527138750003</v>
+        <v>15984.462206249997</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>18743.92436625</v>
+        <v>18778.118036250005</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>23343.135112500007</v>
+        <v>23343.13511249999</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>28047.192337499993</v>
+        <v>28144.194187499997</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>31499.01780000001</v>
+        <v>31645.623367500004</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>32662.39048125</v>
+        <v>33643.8521175</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>33557.58809999998</v>
+        <v>33557.588099999986</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>30308.464391249985</v>
+        <v>30367.101528749994</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>28654.690169999998</v>
+        <v>28766.894850000004</v>
       </c>
     </row>
   </sheetData>

--- a/A2_results_step1.5_twoprice_1.4.xlsx
+++ b/A2_results_step1.5_twoprice_1.4.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d63f66d86bcfcc9a/Master Sustainable Energy/3rd Semester/Renewables in electricity markets/Assignment 1/RenewablesInElectricityMarkets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="115_{3F2F0D99-871C-4999-8D30-ED26268D0288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="profit_dis" sheetId="1" r:id="rId1"/>
-    <sheet name="da_profit_df" sheetId="2" r:id="rId2"/>
-    <sheet name="outofsample_profit_hourly_df" sheetId="3" r:id="rId3"/>
+    <sheet name="da_profit_df" r:id="rId5" sheetId="2"/>
+    <sheet name="outofsample_profit_hourly_df" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>x1</t>
   </si>
@@ -449,2014 +449,2014 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FEF299-71CF-4B43-8DEB-733FC5CC49B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:A401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1">
       <c r="A2">
         <v>96370.49285000001</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1">
       <c r="A3">
-        <v>102816.65291249999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>102816.6529125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4">
         <v>103103.2917875</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1">
       <c r="A5">
-        <v>94029.736225000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+        <v>94029.736225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6">
-        <v>93704.797287499998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+        <v>93704.7972875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7">
         <v>94172.89791249999</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1">
       <c r="A8">
-        <v>95339.634600000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+        <v>95339.6346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9">
-        <v>94966.233412500005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+        <v>94966.2334125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10">
-        <v>95472.740600000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+        <v>95472.7406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11">
-        <v>97319.751787500005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+        <v>97319.7517875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12">
-        <v>96913.262787500003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+        <v>96913.2627875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13">
-        <v>95640.529912500002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+        <v>95640.5299125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14">
-        <v>96269.458662499994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+        <v>96269.4586625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15">
-        <v>87140.495787499996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+        <v>87140.4957875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16">
-        <v>86710.515412499997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>86710.5154125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17">
-        <v>87100.169787499995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>87100.1697875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18">
-        <v>99609.572287500006</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>99609.5722875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19">
-        <v>99873.395600000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>99873.3956</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20">
-        <v>97282.673599999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>97282.6736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21">
-        <v>96885.182975000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+        <v>96885.182975</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>105170.53503749998</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>104697.61785</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>105475.7087875</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1">
       <c r="A25">
         <v>103471.1607875</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1">
       <c r="A26">
         <v>103011.977975</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1">
       <c r="A27">
         <v>103747.760725</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1">
       <c r="A28">
-        <v>107459.85903750001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+        <v>107459.8590375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29">
         <v>107742.4040375</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1">
       <c r="A30">
         <v>108520.9446625</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1">
       <c r="A31">
         <v>108816.39053749999</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1">
       <c r="A32">
         <v>100139.708725</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1">
       <c r="A33">
         <v>100395.60859999999</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1">
       <c r="A34">
         <v>115693.149725</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1">
       <c r="A35">
-        <v>114999.14047499999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+        <v>114999.140475</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36">
         <v>116107.47372499999</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1">
       <c r="A37">
         <v>118975.623225</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1">
       <c r="A38">
-        <v>127313.41303749999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+        <v>127313.4130375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39">
-        <v>126476.98803750001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+        <v>126476.9880375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40">
         <v>127945.82547499999</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1">
       <c r="A41">
-        <v>106282.76566249999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+        <v>106282.7656625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42">
         <v>106039.751475</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1">
       <c r="A43">
         <v>106691.6999125</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1">
       <c r="A44">
         <v>112567.525225</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1">
       <c r="A45">
         <v>111795.4750375</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1">
       <c r="A46">
         <v>112963.5700375</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1">
       <c r="A47">
         <v>129138.90397500001</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1">
       <c r="A48">
         <v>128001.50022500001</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1">
       <c r="A49">
-        <v>109086.49541249999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+        <v>109086.4954125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50">
         <v>110227.6800375</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1">
       <c r="A51">
         <v>110985.733725</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1">
       <c r="A52">
         <v>111386.44522499999</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1">
       <c r="A53">
-        <v>115179.35922499999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+        <v>115179.359225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
       <c r="A54">
         <v>114347.0257875</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1">
       <c r="A55">
-        <v>111652.78572499999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+        <v>111652.785725</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
       <c r="A56">
         <v>113002.265725</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1">
       <c r="A57">
-        <v>92824.071100000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+        <v>92824.0711</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
       <c r="A58">
-        <v>118346.73128750001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+        <v>118346.7312875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
       <c r="A59">
         <v>117422.2532875</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1">
       <c r="A60">
-        <v>112439.45528749999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+        <v>112439.4552875</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61">
-        <v>111592.83347500001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+        <v>111592.833475</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
       <c r="A62">
         <v>112833.302475</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1">
       <c r="A63">
         <v>130774.70016250003</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1">
       <c r="A64">
         <v>131554.06985</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1">
       <c r="A65">
         <v>126894.06534999999</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1">
       <c r="A66">
-        <v>125875.25241250001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+        <v>125875.2524125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
       <c r="A67">
         <v>127611.59447499999</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1">
       <c r="A68">
-        <v>134260.75260000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+        <v>134260.7526</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
       <c r="A69">
-        <v>133014.29203750001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+        <v>133014.2920375</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
       <c r="A70">
         <v>134868.95472500002</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1">
       <c r="A71">
-        <v>133676.87403750001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+        <v>133676.8740375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
       <c r="A72">
         <v>119842.54735000001</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1">
       <c r="A73">
         <v>119074.1591625</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1">
       <c r="A74">
         <v>120533.79522500001</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1">
       <c r="A75">
         <v>127323.72066250001</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1">
       <c r="A76">
         <v>128175.01053750001</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1">
       <c r="A77">
         <v>150689.2554125</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1">
       <c r="A78">
-        <v>149118.00566250001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+        <v>149118.0056625</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
       <c r="A79">
-        <v>151752.34103750001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+        <v>151752.3410375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
       <c r="A80">
         <v>156707.9576625</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1">
       <c r="A81">
-        <v>177068.99097499999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+        <v>177068.990975</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
       <c r="A82">
-        <v>131188.83591250001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+        <v>131188.8359125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
       <c r="A83">
-        <v>130373.79653750001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+        <v>130373.7965375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
       <c r="A84">
         <v>204948.536975</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1">
       <c r="A85">
-        <v>94828.820162499993</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+        <v>94828.8201625</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
       <c r="A86">
-        <v>94956.275412500006</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+        <v>94956.2754125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
       <c r="A87">
         <v>101430.1261625</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1">
       <c r="A88">
         <v>100846.1636</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1">
       <c r="A89">
-        <v>93124.919912500001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+        <v>93124.9199125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
       <c r="A90">
-        <v>92738.130474999998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+        <v>92738.130475</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
       <c r="A91">
         <v>93293.15909999999</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1">
       <c r="A92">
-        <v>94294.230287500002</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+        <v>94294.2302875</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
       <c r="A93">
-        <v>93838.517162500008</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+        <v>93838.51716250001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
       <c r="A94">
-        <v>96516.023224999997</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+        <v>96516.023225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
       <c r="A95">
-        <v>96021.775162499995</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+        <v>96021.7751625</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
       <c r="A96">
-        <v>96723.098162499984</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+        <v>96723.09816249998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
       <c r="A97">
-        <v>96309.887975000005</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+        <v>96309.887975</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
       <c r="A98">
-        <v>95719.190600000002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+        <v>95719.1906</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
       <c r="A99">
-        <v>96452.841662499995</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+        <v>96452.8416625</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
       <c r="A100">
-        <v>87981.683975000007</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+        <v>87981.683975</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
       <c r="A101">
-        <v>99014.134850000002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+        <v>99014.13485</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
       <c r="A102">
         <v>98449.5559125</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1">
       <c r="A103">
-        <v>95600.794912500001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+        <v>95600.7949125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
       <c r="A104">
-        <v>95728.686412499999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+        <v>95728.6864125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
       <c r="A105">
         <v>103632.7167875</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1">
       <c r="A106">
         <v>103019.8656625</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1">
       <c r="A107">
         <v>103973.92128750001</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1">
       <c r="A108">
         <v>101722.1931</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1">
       <c r="A109">
-        <v>105600.37166249999</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+        <v>105600.3716625</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
       <c r="A110">
-        <v>104878.20297499999</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+        <v>104878.202975</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
       <c r="A111">
         <v>105891.4021625</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1">
       <c r="A112">
         <v>106506.2721</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1">
       <c r="A113">
         <v>105755.33260000001</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1">
       <c r="A114">
-        <v>97932.039162500005</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+        <v>97932.0391625</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
       <c r="A115">
-        <v>97461.594287500004</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+        <v>97461.5942875</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
       <c r="A116">
         <v>100940.519975</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1">
       <c r="A117">
         <v>100525.99816250001</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1">
       <c r="A118">
-        <v>101296.82122500001</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+        <v>101296.821225</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
       <c r="A119">
-        <v>113378.31528749999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+        <v>113378.3152875</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
       <c r="A120">
         <v>112469.65466249999</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1">
       <c r="A121">
         <v>115736.95760000001</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1">
       <c r="A122">
         <v>125193.608475</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1">
       <c r="A123">
-        <v>124105.79016249999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+        <v>124105.7901625</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
       <c r="A124">
-        <v>125858.48334999999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+        <v>125858.48335</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
       <c r="A125">
         <v>103976.1699125</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1">
       <c r="A126">
-        <v>103490.10097499999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+        <v>103490.100975</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
       <c r="A127">
-        <v>138272.74197500001</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+        <v>138272.741975</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
       <c r="A128">
-        <v>136680.93716249999</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+        <v>136680.9371625</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
       <c r="A129">
         <v>139019.66191249999</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1">
       <c r="A130">
-        <v>86573.153787499992</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+        <v>86573.15378749999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
       <c r="A131">
-        <v>86908.249349999998</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+        <v>86908.24935</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
       <c r="A132">
-        <v>90898.030412499997</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+        <v>90898.0304125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
       <c r="A133">
         <v>91456.39185</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1">
       <c r="A134">
-        <v>86456.309787499995</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+        <v>86456.3097875</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
       <c r="A135">
-        <v>86471.705350000004</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+        <v>86471.70535</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
       <c r="A136">
-        <v>86811.838474999997</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+        <v>86811.838475</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
       <c r="A137">
-        <v>88011.890662499995</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+        <v>88011.8906625</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
       <c r="A138">
-        <v>87738.542600000001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+        <v>87738.5426</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
       <c r="A139">
-        <v>88146.731599999999</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+        <v>88146.7316</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
       <c r="A140">
-        <v>88099.312099999996</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+        <v>88099.3121</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
       <c r="A141">
-        <v>83154.530474999992</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+        <v>83154.53047499999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
       <c r="A142">
-        <v>83364.632912500005</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+        <v>83364.6329125</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
       <c r="A143">
-        <v>89219.360100000005</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+        <v>89219.3601</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
       <c r="A144">
-        <v>88902.186662499997</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+        <v>88902.1866625</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
       <c r="A145">
-        <v>89374.394474999994</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+        <v>89374.394475</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
       <c r="A146">
         <v>87131.414225</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1">
       <c r="A147">
-        <v>86856.412599999996</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+        <v>86856.4126</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
       <c r="A148">
-        <v>91949.964475000001</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+        <v>91949.964475</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
       <c r="A149">
-        <v>90816.528724999996</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+        <v>90816.528725</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
       <c r="A150">
-        <v>92513.040225000004</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+        <v>92513.040225</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
       <c r="A151">
-        <v>92687.353537500006</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+        <v>92687.3535375</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
       <c r="A152">
-        <v>92558.187850000002</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+        <v>92558.18785</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
       <c r="A153">
-        <v>92159.881412500006</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+        <v>92159.8814125</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
       <c r="A154">
-        <v>92756.116849999991</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+        <v>92756.11684999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
       <c r="A155">
         <v>88386.6809125</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:1">
       <c r="A156">
-        <v>90333.983974999996</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+        <v>90333.983975</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
       <c r="A157">
         <v>90054.8840375</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:1">
       <c r="A158">
-        <v>96106.451662499996</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+        <v>96106.4516625</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
       <c r="A159">
-        <v>96889.474849999999</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+        <v>96889.47485</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
       <c r="A160">
         <v>97994.982225</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:1">
       <c r="A161">
-        <v>97457.187975000008</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+        <v>97457.18797500001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
       <c r="A162">
-        <v>98281.551787499993</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+        <v>98281.5517875</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
       <c r="A163">
-        <v>102851.87572500001</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+        <v>102851.875725</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
       <c r="A164">
         <v>102208.90597499999</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:1">
       <c r="A165">
         <v>103249.6652875</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:1">
       <c r="A166">
-        <v>91668.597787499995</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+        <v>91668.5977875</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
       <c r="A167">
-        <v>91358.277037499996</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+        <v>91358.2770375</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
       <c r="A168">
         <v>110022.2181</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:1">
       <c r="A169">
         <v>109095.46609999999</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:1">
       <c r="A170">
         <v>110490.9072875</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:1">
       <c r="A171">
-        <v>81192.393849999993</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+        <v>81192.39385</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
       <c r="A172">
-        <v>81257.447224999996</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+        <v>81257.447225</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
       <c r="A173">
-        <v>82330.697725000005</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+        <v>82330.697725</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
       <c r="A174">
         <v>82442.0402875</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:1">
       <c r="A175">
         <v>81004.9041</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:1">
       <c r="A176">
-        <v>81038.462912500006</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+        <v>81038.4629125</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
       <c r="A177">
-        <v>81083.251537499993</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+        <v>81083.2515375</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
       <c r="A178">
-        <v>81055.062225000001</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+        <v>81055.062225</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
       <c r="A179">
-        <v>81120.483162499993</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+        <v>81120.4831625</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
       <c r="A180">
-        <v>81484.589537499996</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+        <v>81484.5895375</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
       <c r="A181">
-        <v>81453.941412500004</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+        <v>81453.9414125</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
       <c r="A182">
-        <v>81531.663224999997</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+        <v>81531.663225</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
       <c r="A183">
-        <v>81046.988162499998</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+        <v>81046.9881625</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
       <c r="A184">
-        <v>81119.646225000004</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+        <v>81119.646225</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
       <c r="A185">
-        <v>79778.679350000006</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79778.67935</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
       <c r="A186">
-        <v>79749.637912499995</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79749.6379125</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
       <c r="A187">
-        <v>79785.890912500006</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79785.8909125</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
       <c r="A188">
-        <v>81504.257475000006</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+        <v>81504.257475</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
       <c r="A189">
-        <v>81394.829412499996</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+        <v>81394.8294125</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
       <c r="A190">
-        <v>81441.461287500002</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+        <v>81441.4612875</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
       <c r="A191">
-        <v>82583.585724999997</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+        <v>82583.585725</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
       <c r="A192">
-        <v>82648.904162499995</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+        <v>82648.9041625</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
       <c r="A193">
-        <v>82276.278162500006</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+        <v>82276.2781625</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
       <c r="A194">
-        <v>82241.925350000005</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+        <v>82241.92535</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
       <c r="A195">
-        <v>82795.245912500002</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+        <v>82795.2459125</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
       <c r="A196">
-        <v>82862.982162500004</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+        <v>82862.9821625</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
       <c r="A197">
-        <v>82983.109349999999</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+        <v>82983.10935</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
       <c r="A198">
-        <v>82947.309974999996</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+        <v>82947.309975</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
       <c r="A199">
-        <v>82046.793724999996</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+        <v>82046.793725</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
       <c r="A200">
-        <v>82117.694099999993</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+        <v>82117.6941</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
       <c r="A201">
-        <v>82549.282412500004</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+        <v>82549.2824125</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
       <c r="A202">
-        <v>82647.354037500001</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+        <v>82647.3540375</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
       <c r="A203">
-        <v>83972.515912500006</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+        <v>83972.5159125</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
       <c r="A204">
-        <v>83917.512787500003</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+        <v>83917.5127875</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
       <c r="A205">
-        <v>84401.635662500004</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+        <v>84401.6356625</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
       <c r="A206">
-        <v>84350.512224999999</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+        <v>84350.512225</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
       <c r="A207">
-        <v>85748.853037499997</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+        <v>85748.8530375</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
       <c r="A208">
-        <v>85680.735912500008</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+        <v>85680.73591250001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
       <c r="A209">
-        <v>82723.241537499998</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+        <v>82723.2415375</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
       <c r="A210">
-        <v>87576.511162499999</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+        <v>87576.5111625</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
       <c r="A211">
-        <v>78918.623412500005</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+        <v>78918.6234125</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
       <c r="A212">
-        <v>78934.017162499993</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+        <v>78934.0171625</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
       <c r="A213">
-        <v>78934.017162499993</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+        <v>78934.0171625</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
       <c r="A214">
-        <v>78934.017162499993</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+        <v>78934.0171625</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
       <c r="A215">
-        <v>78944.157162500007</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+        <v>78944.1571625</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
       <c r="A216">
-        <v>78944.157162500007</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+        <v>78944.1571625</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
       <c r="A217">
-        <v>79036.330287499994</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79036.3302875</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
       <c r="A218">
-        <v>79017.644037499995</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79017.6440375</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
       <c r="A219">
-        <v>79017.644037499995</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79017.6440375</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
       <c r="A220">
-        <v>79019.454037500007</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79019.4540375</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
       <c r="A221">
-        <v>79019.454037500007</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79019.4540375</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
       <c r="A222">
-        <v>78996.567787499996</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+        <v>78996.5677875</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
       <c r="A223">
-        <v>78996.567787499996</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+        <v>78996.5677875</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
       <c r="A224">
-        <v>79021.700912500004</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79021.7009125</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
       <c r="A225">
-        <v>79021.700912500004</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79021.7009125</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
       <c r="A226">
-        <v>79034.298412499993</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79034.2984125</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
       <c r="A227">
-        <v>79034.298412499993</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79034.2984125</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
       <c r="A228">
-        <v>79050.400287500001</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79050.4002875</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
       <c r="A229">
-        <v>79050.400287500001</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79050.4002875</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
       <c r="A230">
-        <v>79044.964662500002</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79044.9646625</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
       <c r="A231">
-        <v>79044.964662500002</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79044.9646625</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
       <c r="A232">
-        <v>79044.964662500002</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79044.9646625</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
       <c r="A233">
-        <v>79112.061537500005</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79112.0615375</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
       <c r="A234">
-        <v>79112.061537500005</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79112.0615375</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
       <c r="A235">
-        <v>79035.249037500005</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79035.2490375</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
       <c r="A236">
-        <v>79035.249037500005</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79035.2490375</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
       <c r="A237">
-        <v>79057.353412500001</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79057.3534125</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
       <c r="A238">
-        <v>79084.917787500002</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79084.9177875</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
       <c r="A239">
-        <v>79084.917787500002</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79084.9177875</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
       <c r="A240">
-        <v>79129.227162499999</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79129.2271625</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
       <c r="A241">
-        <v>79129.227162499999</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79129.2271625</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
       <c r="A242">
-        <v>79154.505287499996</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79154.5052875</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
       <c r="A243">
-        <v>79154.505287499996</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79154.5052875</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
       <c r="A244">
-        <v>79143.002787499994</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79143.0027875</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
       <c r="A245">
-        <v>79143.002787499994</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79143.0027875</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
       <c r="A246">
-        <v>79219.803412499998</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79219.8034125</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
       <c r="A247">
-        <v>79219.803412499998</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79219.8034125</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
       <c r="A248">
-        <v>83945.760850000006</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+        <v>83945.76085</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
       <c r="A249">
-        <v>84070.687412500003</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+        <v>84070.6874125</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
       <c r="A250">
-        <v>84131.308600000004</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+        <v>84131.3086</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
       <c r="A251">
-        <v>86401.179474999997</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+        <v>86401.179475</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
       <c r="A252">
-        <v>86518.762975000005</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+        <v>86518.762975</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
       <c r="A253">
-        <v>83378.657974999995</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+        <v>83378.657975</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
       <c r="A254">
-        <v>83455.372162500003</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+        <v>83455.3721625</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
       <c r="A255">
-        <v>83446.471974999993</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+        <v>83446.471975</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
       <c r="A256">
-        <v>83552.382287500004</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+        <v>83552.3822875</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
       <c r="A257">
-        <v>83615.966725000006</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+        <v>83615.966725</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
       <c r="A258">
-        <v>84248.463600000003</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+        <v>84248.4636</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
       <c r="A259">
-        <v>84353.707475000003</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+        <v>84353.707475</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
       <c r="A260">
-        <v>84437.901662499993</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+        <v>84437.9016625</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
       <c r="A261">
-        <v>79626.106224999996</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79626.106225</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
       <c r="A262">
-        <v>84104.740600000005</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+        <v>84104.7406</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
       <c r="A263">
         <v>84112.2495375</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:1">
       <c r="A264">
-        <v>84247.579162499998</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+        <v>84247.5791625</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
       <c r="A265">
-        <v>84315.041412499995</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+        <v>84315.0414125</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
       <c r="A266">
-        <v>86747.108600000007</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+        <v>86747.1086</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
       <c r="A267">
-        <v>86026.367662499993</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+        <v>86026.3676625</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
       <c r="A268">
-        <v>86178.644037499995</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+        <v>86178.6440375</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
       <c r="A269">
-        <v>86288.223912500005</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+        <v>86288.2239125</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
       <c r="A270">
-        <v>87168.810412499995</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+        <v>87168.8104125</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
       <c r="A271">
-        <v>87353.535350000006</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+        <v>87353.53535</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
       <c r="A272">
-        <v>87468.565849999999</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+        <v>87468.56585</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
       <c r="A273">
-        <v>87675.579475000006</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+        <v>87675.579475</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
       <c r="A274">
-        <v>87881.609787499998</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+        <v>87881.6097875</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
       <c r="A275">
         <v>87993.6585375</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:1">
       <c r="A276">
-        <v>86188.482099999994</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+        <v>86188.4821</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
       <c r="A277">
-        <v>86348.817787499996</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+        <v>86348.8177875</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
       <c r="A278">
-        <v>90142.759724999996</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+        <v>90142.759725</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
       <c r="A279">
-        <v>90701.814412499996</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+        <v>90701.8144125</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
       <c r="A280">
         <v>91131.3796</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:1">
       <c r="A281">
-        <v>94054.540412500006</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+        <v>94054.5404125</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
       <c r="A282">
         <v>94319.044725</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:1">
       <c r="A283">
-        <v>87620.261849999995</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+        <v>87620.26185</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
       <c r="A284">
         <v>87949.9995375</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:1">
       <c r="A285">
-        <v>97254.044349999996</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+        <v>97254.04435</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
       <c r="A286">
-        <v>95791.507599999997</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+        <v>95791.5076</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
       <c r="A287">
-        <v>96351.730100000001</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+        <v>96351.7301</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
       <c r="A288">
         <v>104270.02266249999</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:1">
       <c r="A289">
-        <v>94552.253162499997</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+        <v>94552.2531625</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
       <c r="A290">
-        <v>94283.864600000001</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+        <v>94283.8646</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
       <c r="A291">
-        <v>94891.011599999998</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+        <v>94891.0116</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
       <c r="A292">
-        <v>97584.671350000004</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+        <v>97584.67135</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
       <c r="A293">
         <v>97284.3717875</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:1">
       <c r="A294">
-        <v>97957.202974999993</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+        <v>97957.202975</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
       <c r="A295">
-        <v>95523.349162500002</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+        <v>95523.3491625</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
       <c r="A296">
-        <v>85678.518974999999</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+        <v>85678.518975</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
       <c r="A297">
-        <v>98764.536724999998</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+        <v>98764.536725</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
       <c r="A298">
-        <v>99166.152725000007</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+        <v>99166.152725</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
       <c r="A299">
-        <v>96144.686600000001</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+        <v>96144.6866</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
       <c r="A300">
-        <v>95853.516975000006</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+        <v>95853.516975</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
       <c r="A301">
         <v>105194.398975</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:1">
       <c r="A302">
         <v>103626.813725</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:1">
       <c r="A303">
         <v>103266.3294125</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:1">
       <c r="A304">
         <v>104121.03085</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:1">
       <c r="A305">
         <v>106833.12172499999</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:1">
       <c r="A306">
-        <v>107799.38159999999</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+        <v>107799.3816</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
       <c r="A307">
-        <v>100660.72766249999</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+        <v>100660.7276625</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
       <c r="A308">
         <v>104740.5916</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:1">
       <c r="A309">
         <v>104483.33322500001</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:1">
       <c r="A310">
         <v>105313.86285</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:1">
       <c r="A311">
         <v>115820.41584999999</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:1">
       <c r="A312">
         <v>115268.21535</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:1">
       <c r="A313">
         <v>116558.617975</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:1">
       <c r="A314">
         <v>119119.46184999999</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:1">
       <c r="A315">
         <v>118556.02041249999</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:1">
       <c r="A316">
         <v>129793.66735</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:1">
       <c r="A317">
         <v>129113.082475</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:1">
       <c r="A318">
         <v>130896.73735</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:1">
       <c r="A319">
         <v>106874.6811625</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:1">
       <c r="A320">
         <v>142522.55359999998</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:1">
       <c r="A321">
         <v>144854.11609999998</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:1">
       <c r="A322">
-        <v>97607.990850000002</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+        <v>97607.99085</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
       <c r="A323">
-        <v>97488.170912500005</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+        <v>97488.1709125</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
       <c r="A324">
-        <v>106384.81866249999</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+        <v>106384.8186625</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
       <c r="A325">
-        <v>106170.89678749999</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+        <v>106170.8967875</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
       <c r="A326">
         <v>106953.8409125</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:1">
       <c r="A327">
-        <v>95507.905912499991</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+        <v>95507.90591249999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
       <c r="A328">
-        <v>96075.321287500003</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+        <v>96075.3212875</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
       <c r="A329">
-        <v>98215.635037500004</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+        <v>98215.6350375</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
       <c r="A330">
-        <v>98596.176537499996</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+        <v>98596.1765375</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
       <c r="A331">
-        <v>94787.475350000008</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+        <v>94787.47535000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
       <c r="A332">
-        <v>94553.727662499994</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+        <v>94553.7276625</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
       <c r="A333">
-        <v>95032.475724999997</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+        <v>95032.475725</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
       <c r="A334">
         <v>83917.726725</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:1">
       <c r="A335">
-        <v>98423.881662500004</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+        <v>98423.8816625</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
       <c r="A336">
-        <v>98295.716037499995</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+        <v>98295.7160375</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
       <c r="A337">
-        <v>98828.611037499999</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+        <v>98828.6110375</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
       <c r="A338">
-        <v>96969.426225000003</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+        <v>96969.426225</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
       <c r="A339">
-        <v>96834.931849999994</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+        <v>96834.93185</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
       <c r="A340">
-        <v>97303.166537500001</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+        <v>97303.1665375</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
       <c r="A341">
-        <v>106304.09447500001</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+        <v>106304.094475</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
       <c r="A342">
         <v>107017.43272499999</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:1">
       <c r="A343">
-        <v>104562.89597500001</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+        <v>104562.895975</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
       <c r="A344">
         <v>105074.2006</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:1">
       <c r="A345">
         <v>108727.73084999999</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:1">
       <c r="A346">
-        <v>108538.65378750001</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+        <v>108538.6537875</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
       <c r="A347">
-        <v>109459.38860000001</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+        <v>109459.3886</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
       <c r="A348">
         <v>110217.9985375</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:1">
       <c r="A349">
         <v>103138.173475</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:1">
       <c r="A350">
-        <v>103071.34484999999</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+        <v>103071.34485</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
       <c r="A351">
         <v>103707.4937875</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:1">
       <c r="A352">
         <v>107156.7382875</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:1">
       <c r="A353">
-        <v>107774.92491250001</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+        <v>107774.9249125</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
       <c r="A354">
         <v>117616.5339125</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:1">
       <c r="A355">
         <v>117385.1691</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:1">
       <c r="A356">
-        <v>132391.83091250001</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+        <v>132391.8309125</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
       <c r="A357">
-        <v>146981.86184999999</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+        <v>146981.86185</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
       <c r="A358">
-        <v>146381.61166250001</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
+        <v>146381.6116625</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
       <c r="A359">
         <v>148276.343975</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:1">
       <c r="A360">
         <v>103544.9529125</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:1">
       <c r="A361">
         <v>103825.002475</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:1">
       <c r="A362">
         <v>114810.27659999998</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:1">
       <c r="A363">
         <v>115364.214475</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:1">
       <c r="A364">
-        <v>101034.74666249999</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+        <v>101034.7466625</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
       <c r="A365">
         <v>101330.05635</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:1">
       <c r="A366">
         <v>101732.161725</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:1">
       <c r="A367">
         <v>102572.88135</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:1">
       <c r="A368">
         <v>105366.55385</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:1">
       <c r="A369">
         <v>105750.8941625</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:1">
       <c r="A370">
         <v>103500.57178750001</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:1">
       <c r="A371">
         <v>102784.7166</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:1">
       <c r="A372">
         <v>103753.23084999999</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:1">
       <c r="A373">
-        <v>89854.900225000005</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
+        <v>89854.900225</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
       <c r="A374">
         <v>107688.42384999999</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:1">
       <c r="A375">
         <v>107015.91603749999</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:1">
       <c r="A376">
         <v>108115.3389125</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:1">
       <c r="A377">
         <v>103598.914725</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:1">
       <c r="A378">
         <v>103871.035225</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:1">
       <c r="A379">
         <v>115669.6452875</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:1">
       <c r="A380">
         <v>113982.99641250001</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:1">
       <c r="A381">
-        <v>119285.59616250001</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
+        <v>119285.5961625</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
       <c r="A382">
         <v>119817.743475</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:1">
       <c r="A383">
         <v>120148.60685000001</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:1">
       <c r="A384">
         <v>119272.76634999999</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:1">
       <c r="A385">
         <v>120728.6321</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:1">
       <c r="A386">
-        <v>109078.89472500001</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
+        <v>109078.894725</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
       <c r="A387">
         <v>109586.95509999999</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:1">
       <c r="A388">
         <v>114079.44885000002</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:1">
       <c r="A389">
         <v>113559.78797500001</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:1">
       <c r="A390">
-        <v>114711.44116250001</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
+        <v>114711.4411625</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
       <c r="A391">
         <v>131163.486725</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:1">
       <c r="A392">
-        <v>131929.32084999999</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
+        <v>131929.32085</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
       <c r="A393">
         <v>135819.83659999998</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:1">
       <c r="A394">
-        <v>136651.14641250001</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
+        <v>136651.1464125</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
       <c r="A395">
         <v>150256.1226</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:1">
       <c r="A396">
         <v>148908.05997499998</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:1">
       <c r="A397">
         <v>151454.2126</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:1">
       <c r="A398">
         <v>116982.41159999999</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:1">
       <c r="A399">
         <v>116414.08128749998</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:1">
       <c r="A400">
         <v>117604.343725</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:1">
       <c r="A401">
         <v>171344.5764125</v>
       </c>
@@ -2467,14 +2467,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15A75CD-8F50-4697-B19D-00E929EC9942}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2548,78 +2548,78 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24">
       <c r="A2">
-        <v>4242.3671250000025</v>
+        <v>4242.367124999999</v>
       </c>
       <c r="B2">
-        <v>3373.4503124999983</v>
+        <v>3373.4503125000006</v>
       </c>
       <c r="C2">
-        <v>3269.5250625000008</v>
+        <v>3269.5250624999985</v>
       </c>
       <c r="D2">
-        <v>3306.4078125000005</v>
+        <v>3306.4078125000024</v>
       </c>
       <c r="E2">
-        <v>4181.2987500000008</v>
+        <v>4181.298749999998</v>
       </c>
       <c r="F2">
-        <v>4998.1356000000005</v>
+        <v>4998.135599999998</v>
       </c>
       <c r="G2">
-        <v>6483.7332000000015</v>
+        <v>6483.733200000003</v>
       </c>
       <c r="H2">
-        <v>7961.8593000000037</v>
+        <v>7961.859300000002</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J2">
-        <v>5136.961949999999</v>
+        <v>5136.961950000002</v>
       </c>
       <c r="K2">
         <v>1611.3382499999998</v>
       </c>
       <c r="L2">
-        <v>749.99744999999996</v>
+        <v>749.99745</v>
       </c>
       <c r="M2">
-        <v>4220.3169000000016</v>
+        <v>4220.316899999999</v>
       </c>
       <c r="N2">
-        <v>4095.1122749999986</v>
+        <v>4095.112275</v>
       </c>
       <c r="O2">
-        <v>1395.1816499999998</v>
+        <v>1395.18165</v>
       </c>
       <c r="P2">
-        <v>2155.6078874999998</v>
+        <v>2155.6078875000003</v>
       </c>
       <c r="Q2">
-        <v>3413.6316000000006</v>
+        <v>3413.631600000001</v>
       </c>
       <c r="R2">
-        <v>3887.2333499999995</v>
+        <v>3887.233350000002</v>
       </c>
       <c r="S2">
-        <v>4141.0643999999993</v>
+        <v>4141.064399999999</v>
       </c>
       <c r="T2">
-        <v>4092.5643000000009</v>
+        <v>4092.564300000002</v>
       </c>
       <c r="U2">
-        <v>3799.3863000000006</v>
+        <v>3799.3863</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W2">
         <v>1614.5533499999992</v>
       </c>
       <c r="X2">
-        <v>784.06346249999979</v>
+        <v>784.0634625</v>
       </c>
     </row>
   </sheetData>
@@ -2628,136 +2628,136 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36AFF7B-84EA-427E-A866-789B544409A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1">
       <c r="A2">
-        <v>26854.530183750001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>26854.53018375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3">
-        <v>25110.885712500003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>25110.88571250001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4">
-        <v>23586.666449999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+        <v>23586.666450000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5">
         <v>22245.531277500002</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1">
       <c r="A6">
-        <v>24898.2777675</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+        <v>24898.277767499996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7">
-        <v>28605.558142500005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+        <v>28605.558142499995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8">
-        <v>32684.280236250012</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+        <v>32684.280236250004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9">
-        <v>37201.045387500009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+        <v>37201.0453875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10">
-        <v>35035.65922500001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+        <v>35035.659224999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11">
-        <v>26122.033072500002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+        <v>26122.03307250001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12">
-        <v>19561.218161250006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+        <v>19561.218161250003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13">
-        <v>15456.223724999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+        <v>15456.223725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14">
-        <v>14379.335696250004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+        <v>14379.33569625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15">
-        <v>14690.060898749998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+        <v>14690.060898750002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16">
-        <v>15512.752323750005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>15512.75232375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17">
-        <v>15970.527138750003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>15970.527138750002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18">
-        <v>18561.986587499996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>18561.986587500003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>23343.1351125</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1">
       <c r="A20">
-        <v>28047.192337499993</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>28047.1923375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21">
-        <v>31499.017800000009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+        <v>31499.01780000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22">
-        <v>32662.39048125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+        <v>32662.390481250004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23">
-        <v>33557.588099999979</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+        <v>33557.588099999986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24">
-        <v>30308.464391249985</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+        <v>30308.46439125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25">
-        <v>28654.690169999998</v>
+        <v>28654.690170000005</v>
       </c>
     </row>
   </sheetData>
